--- a/点検報告書/ベッドサイドモニター 点検報告書 org.xlsx
+++ b/点検報告書/ベッドサイドモニター 点検報告書 org.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Others\点検報告書\PC入力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A78FE06-14D3-4606-9F70-85721EFB4B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75F2FE-3E5C-4297-85E7-C88BFD0CEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>製造番号</t>
     <rPh sb="0" eb="2">
@@ -318,26 +318,6 @@
     <rPh sb="0" eb="2">
       <t>ブヒン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：500μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：100μA以下      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：5,000μA以下   （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：0.2Ω以下         （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：10,000μA以下 （</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -444,13 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>測定精度</t>
-    <rPh sb="0" eb="4">
-      <t>ソクテイセイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ℃）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -459,17 +432,6 @@
     <rPh sb="2" eb="3">
       <t>ハク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：72±3拍           （</t>
-    <rPh sb="5" eb="6">
-      <t>ハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：97±4％           （</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -493,10 +455,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：    ±0.1℃        （</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -549,14 +507,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>抵抗値</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体温測定精度</t>
+    <rPh sb="0" eb="2">
+      <t>タイオン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ソクテイセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：10,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     100 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     500 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：  5,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：      0.2   Ω以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     ± 0.1 ℃      （</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：97 ± 4 ％         （</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：72 ± 3 拍         （</t>
+    <rPh sb="8" eb="9">
+      <t>ハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0&quot;μA）&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -830,15 +841,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -869,6 +877,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,8 +934,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,20 +960,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,6 +983,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -985,8 +994,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1382,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B38E942-09E3-4432-B315-9F85F1F1FB07}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="63" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="63" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="72" zoomScaleSheetLayoutView="63" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
@@ -1393,14 +1402,14 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="4.3125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1421,16 +1430,16 @@
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="13"/>
@@ -1443,7 +1452,7 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="35"/>
@@ -1455,19 +1464,19 @@
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="16"/>
@@ -1479,130 +1488,132 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="27"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="23" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="19" t="s">
@@ -1616,7 +1627,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="20"/>
@@ -1628,7 +1639,7 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="20"/>
@@ -1640,7 +1651,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="21"/>
@@ -1652,21 +1663,21 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A20" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="20"/>
@@ -1678,7 +1689,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="21"/>
@@ -1690,105 +1701,105 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="20"/>
       <c r="B24" s="34"/>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A25" s="20"/>
-      <c r="B25" s="8" t="s">
-        <v>36</v>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="20"/>
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="10"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="20"/>
       <c r="B27" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A28" s="21"/>
       <c r="B28" s="34"/>
-      <c r="C28" s="46" t="s">
-        <v>52</v>
+      <c r="C28" s="45" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="27" t="s">
@@ -1832,16 +1843,11 @@
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="44">
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+  <mergeCells count="43">
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="A1:H1"/>
@@ -1851,7 +1857,6 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B10:G10"/>
@@ -1860,7 +1865,7 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="D26:E26"/>
@@ -1869,53 +1874,58 @@
     <mergeCell ref="B29:H30"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:B8 E8">
-    <cfRule type="containsBlanks" dxfId="7" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 F11:F15">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="10">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="containsBlanks" dxfId="5" priority="8">
+    <cfRule type="containsBlanks" dxfId="5" priority="9">
       <formula>LEN(TRIM(F23))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
-      <formula>LEN(TRIM(F27))=0</formula>
+  <conditionalFormatting sqref="F26:F28">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
+      <formula>LEN(TRIM(F26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H28">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="不合格">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="不合格">
       <formula>NOT(ISERROR(SEARCH("不合格",H11)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="不合格">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="不合格">
       <formula>NOT(ISERROR(SEARCH("不合格",H32)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(H32))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/点検報告書/ベッドサイドモニター 点検報告書 org.xlsx
+++ b/点検報告書/ベッドサイドモニター 点検報告書 org.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yamas\Desktop\Programming\Streamlit\report_app\点検報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75F2FE-3E5C-4297-85E7-C88BFD0CEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BFCFF0-2620-416C-A27B-3DB3849AEE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{98B9417B-430B-4079-92A6-5FCAEA3AD8D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>製造番号</t>
     <rPh sb="0" eb="2">
@@ -435,26 +435,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mmHg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>ベッドサイドモニター　点検報告書</t>
+    <rPh sb="11" eb="16">
+      <t>テンケンホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗値</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体温測定精度</t>
+    <rPh sb="0" eb="2">
+      <t>タイオン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ソクテイセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：10,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     100 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：     500 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：  5,000 μA以下（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：      0.2   Ω以下（</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -463,24 +484,42 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="9.5"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">(上限値)：      </t>
+      <t>(上限値)</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>サイコウケツアツ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ケイホウソクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>㎜Hg）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>最高血圧警報測定</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="9.5"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>mmHg（</t>
+      <t>(下限値)</t>
     </r>
     <rPh sb="0" eb="4">
       <t>サイコウケツアツ</t>
@@ -489,74 +528,27 @@
       <t>ケイホウソクテイ</t>
     </rPh>
     <rPh sb="9" eb="12">
-      <t>ジョウゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最高血圧警報測定(下限値)：      mmHg（</t>
-    <rPh sb="9" eb="10">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベッドサイドモニター　点検報告書</t>
-    <rPh sb="11" eb="16">
-      <t>テンケンホウコクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>抵抗値</t>
-    <rPh sb="0" eb="3">
-      <t>テイコウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体温測定精度</t>
-    <rPh sb="0" eb="2">
-      <t>タイオン</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ソクテイセイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：10,000 μA以下（</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：     100 μA以下（</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：     500 μA以下（</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：  5,000 μA以下（</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：      0.2   Ω以下（</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：     ± 0.1 ℃      （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：97 ± 4 ％         （</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>：72 ± 3 拍         （</t>
-    <rPh sb="8" eb="9">
+      <t>カゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：         97 ± 4 ％（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：         72 ± 3 拍（</t>
+    <rPh sb="17" eb="18">
       <t>ハク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：           ± 0.1 ℃（</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ：                       ㎜Hg （</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -567,7 +559,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0&quot;μA）&quot;"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -664,13 +656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,25 +664,34 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6.5"/>
+      <sz val="9.5"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -841,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,48 +871,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,9 +968,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,26 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,454 +1400,456 @@
     <col min="3" max="3" width="19.0625" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="8.4375" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" customWidth="1"/>
     <col min="7" max="7" width="5.9375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="9"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="9"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="9"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="9"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="9"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="9"/>
+      <c r="C27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="9"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="29" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B6:H6"/>
@@ -1864,15 +1864,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:H30"/>
-    <mergeCell ref="E32:G32"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A28"/>
@@ -1880,6 +1871,14 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:H30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A2:H2"/>
@@ -1891,6 +1890,9 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:B8 E8">
